--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rtn4-Tnfrsf19.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rtn4-Tnfrsf19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>57.045267</v>
+        <v>35.71508866666667</v>
       </c>
       <c r="H2">
-        <v>171.135801</v>
+        <v>107.145266</v>
       </c>
       <c r="I2">
-        <v>0.2489699905037019</v>
+        <v>0.1390302752364672</v>
       </c>
       <c r="J2">
-        <v>0.2489699905037019</v>
+        <v>0.1390302752364672</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,33 +555,33 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.08774700000000001</v>
+        <v>1.769432666666667</v>
       </c>
       <c r="N2">
-        <v>0.263241</v>
+        <v>5.308298</v>
       </c>
       <c r="O2">
-        <v>0.1364824129982362</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.1364824129982362</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>5.005551043449</v>
+        <v>63.19544457969646</v>
       </c>
       <c r="R2">
-        <v>45.04995939104101</v>
+        <v>568.7590012172681</v>
       </c>
       <c r="S2">
-        <v>0.03398002506809317</v>
+        <v>0.1390302752364672</v>
       </c>
       <c r="T2">
-        <v>0.03398002506809317</v>
+        <v>0.1390302752364672</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -599,51 +599,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>57.045267</v>
+        <v>54.09018966666667</v>
       </c>
       <c r="H3">
-        <v>171.135801</v>
+        <v>162.270569</v>
       </c>
       <c r="I3">
-        <v>0.2489699905037019</v>
+        <v>0.2105601368412127</v>
       </c>
       <c r="J3">
-        <v>0.2489699905037019</v>
+        <v>0.2105601368412127</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.5551710000000001</v>
+        <v>1.769432666666667</v>
       </c>
       <c r="N3">
-        <v>1.665513</v>
+        <v>5.308298</v>
       </c>
       <c r="O3">
-        <v>0.8635175870017638</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.8635175870017638</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>31.669877925657</v>
+        <v>95.70894854239577</v>
       </c>
       <c r="R3">
-        <v>285.0289013309131</v>
+        <v>861.380536881562</v>
       </c>
       <c r="S3">
-        <v>0.2149899654356087</v>
+        <v>0.2105601368412127</v>
       </c>
       <c r="T3">
-        <v>0.2149899654356087</v>
+        <v>0.2105601368412127</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>54.09018966666665</v>
+        <v>101.4529346666666</v>
       </c>
       <c r="H4">
-        <v>162.270569</v>
+        <v>304.358804</v>
       </c>
       <c r="I4">
-        <v>0.2360727666969011</v>
+        <v>0.3949319449238378</v>
       </c>
       <c r="J4">
-        <v>0.2360727666969011</v>
+        <v>0.3949319449238378</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.08774700000000001</v>
+        <v>1.769432666666667</v>
       </c>
       <c r="N4">
-        <v>0.263241</v>
+        <v>5.308298</v>
       </c>
       <c r="O4">
-        <v>0.1364824129982362</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.1364824129982362</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>4.746251872680999</v>
+        <v>179.5141367283991</v>
       </c>
       <c r="R4">
-        <v>42.71626685412899</v>
+        <v>1615.627230555592</v>
       </c>
       <c r="S4">
-        <v>0.0322197808419627</v>
+        <v>0.3949319449238378</v>
       </c>
       <c r="T4">
-        <v>0.0322197808419627</v>
+        <v>0.3949319449238378</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -723,294 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>54.09018966666665</v>
+        <v>65.628919</v>
       </c>
       <c r="H5">
-        <v>162.270569</v>
+        <v>196.886757</v>
       </c>
       <c r="I5">
-        <v>0.2360727666969011</v>
+        <v>0.2554776429984823</v>
       </c>
       <c r="J5">
-        <v>0.2360727666969011</v>
+        <v>0.2554776429984823</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5551710000000001</v>
+        <v>1.769432666666667</v>
       </c>
       <c r="N5">
-        <v>1.665513</v>
+        <v>5.308298</v>
       </c>
       <c r="O5">
-        <v>0.8635175870017638</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.8635175870017638</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>30.029304687433</v>
+        <v>116.1259531566207</v>
       </c>
       <c r="R5">
-        <v>270.263742186897</v>
+        <v>1045.133578409586</v>
       </c>
       <c r="S5">
-        <v>0.2038529858549384</v>
+        <v>0.2554776429984823</v>
       </c>
       <c r="T5">
-        <v>0.2038529858549384</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>50.54489333333333</v>
-      </c>
-      <c r="H6">
-        <v>151.63468</v>
-      </c>
-      <c r="I6">
-        <v>0.2205995742505793</v>
-      </c>
-      <c r="J6">
-        <v>0.2205995742505794</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.08774700000000001</v>
-      </c>
-      <c r="N6">
-        <v>0.263241</v>
-      </c>
-      <c r="O6">
-        <v>0.1364824129982362</v>
-      </c>
-      <c r="P6">
-        <v>0.1364824129982362</v>
-      </c>
-      <c r="Q6">
-        <v>4.43516275532</v>
-      </c>
-      <c r="R6">
-        <v>39.91646479788</v>
-      </c>
-      <c r="S6">
-        <v>0.03010796220010263</v>
-      </c>
-      <c r="T6">
-        <v>0.03010796220010263</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>50.54489333333333</v>
-      </c>
-      <c r="H7">
-        <v>151.63468</v>
-      </c>
-      <c r="I7">
-        <v>0.2205995742505793</v>
-      </c>
-      <c r="J7">
-        <v>0.2205995742505794</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.5551710000000001</v>
-      </c>
-      <c r="N7">
-        <v>1.665513</v>
-      </c>
-      <c r="O7">
-        <v>0.8635175870017638</v>
-      </c>
-      <c r="P7">
-        <v>0.8635175870017638</v>
-      </c>
-      <c r="Q7">
-        <v>28.06105897676001</v>
-      </c>
-      <c r="R7">
-        <v>252.54953079084</v>
-      </c>
-      <c r="S7">
-        <v>0.1904916120504767</v>
-      </c>
-      <c r="T7">
-        <v>0.1904916120504767</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>67.444722</v>
-      </c>
-      <c r="H8">
-        <v>202.334166</v>
-      </c>
-      <c r="I8">
-        <v>0.2943576685488177</v>
-      </c>
-      <c r="J8">
-        <v>0.2943576685488177</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0.08774700000000001</v>
-      </c>
-      <c r="N8">
-        <v>0.263241</v>
-      </c>
-      <c r="O8">
-        <v>0.1364824129982362</v>
-      </c>
-      <c r="P8">
-        <v>0.1364824129982362</v>
-      </c>
-      <c r="Q8">
-        <v>5.918072021334</v>
-      </c>
-      <c r="R8">
-        <v>53.262648192006</v>
-      </c>
-      <c r="S8">
-        <v>0.04017464488807765</v>
-      </c>
-      <c r="T8">
-        <v>0.04017464488807765</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>67.444722</v>
-      </c>
-      <c r="H9">
-        <v>202.334166</v>
-      </c>
-      <c r="I9">
-        <v>0.2943576685488177</v>
-      </c>
-      <c r="J9">
-        <v>0.2943576685488177</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.5551710000000001</v>
-      </c>
-      <c r="N9">
-        <v>1.665513</v>
-      </c>
-      <c r="O9">
-        <v>0.8635175870017638</v>
-      </c>
-      <c r="P9">
-        <v>0.8635175870017638</v>
-      </c>
-      <c r="Q9">
-        <v>37.44335375746201</v>
-      </c>
-      <c r="R9">
-        <v>336.990183817158</v>
-      </c>
-      <c r="S9">
-        <v>0.2541830236607401</v>
-      </c>
-      <c r="T9">
-        <v>0.2541830236607401</v>
+        <v>0.2554776429984823</v>
       </c>
     </row>
   </sheetData>
